--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-182906.2709092443</v>
+        <v>-185566.7096544435</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11190823.99609509</v>
+        <v>11190823.99609508</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>240.1432896535321</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>137.3326688072941</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -713,7 +713,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609202</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>202.7120942205307</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.79634535923051</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>285.8712889207596</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>265.5284077291325</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.01324878748993</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.5821375745167324</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>326.2458591048428</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.23972555294949</v>
+        <v>412.2397255529495</v>
       </c>
       <c r="H8" t="n">
-        <v>308.1057308580342</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.38912089824733</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>139.221684497942</v>
       </c>
       <c r="T8" t="n">
         <v>209.6875146996641</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1006119508617</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>195.2050760079615</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.704661281745</v>
       </c>
       <c r="H9" t="n">
-        <v>96.40754664444705</v>
+        <v>96.40754664444711</v>
       </c>
       <c r="I9" t="n">
-        <v>32.97111237112995</v>
+        <v>32.97111237113013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2421419020534</v>
+        <v>141.2421419020536</v>
       </c>
       <c r="T9" t="n">
-        <v>193.5589894182124</v>
+        <v>193.5589894182125</v>
       </c>
       <c r="U9" t="n">
         <v>225.8335626150889</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>67.99732077514238</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0114037757904</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.0721924556109</v>
+        <v>200.072192455611</v>
       </c>
       <c r="T10" t="n">
-        <v>222.0750257228877</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.244085990039</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>8.299848051475966</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>212.0536457870944</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>294.2183612136894</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>105.5089280640939</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>109.4875097761955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695612</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>20.92847288552886</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>225.8471109562112</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946216</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>220.4289331391119</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>73.22341869627996</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,25 +2287,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454007</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520988</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>107.182192445441</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>93.02868377804651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>196.7867454260345</v>
       </c>
       <c r="U28" t="n">
-        <v>231.599992495915</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>68.17501931583801</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>132.8121873168115</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,16 +3035,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678028</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6452826062324277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>12.35680705404203</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670947</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>37.58623250008694</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534141</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.5290632934505</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>179.7186804608953</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1406.488813668303</v>
+        <v>2033.646275184233</v>
       </c>
       <c r="C2" t="n">
-        <v>1037.526296727892</v>
+        <v>1664.683758243821</v>
       </c>
       <c r="D2" t="n">
-        <v>1037.526296727892</v>
+        <v>1306.41805963707</v>
       </c>
       <c r="E2" t="n">
-        <v>794.9573172798794</v>
+        <v>920.6298070388261</v>
       </c>
       <c r="F2" t="n">
-        <v>788.0118165306759</v>
+        <v>509.6439022492186</v>
       </c>
       <c r="G2" t="n">
         <v>370.9240347671034</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L2" t="n">
-        <v>1030.215540799241</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M2" t="n">
-        <v>1661.933351782553</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N2" t="n">
-        <v>2289.241019842399</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O2" t="n">
-        <v>2459.410045159359</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4361,19 +4361,19 @@
         <v>2420.246115248354</v>
       </c>
       <c r="U2" t="n">
-        <v>2166.554411993505</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V2" t="n">
-        <v>2166.554411993505</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W2" t="n">
-        <v>2166.554411993505</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="X2" t="n">
-        <v>1793.088653732425</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="Y2" t="n">
-        <v>1793.088653732425</v>
+        <v>2420.246115248354</v>
       </c>
     </row>
     <row r="3">
@@ -4404,37 +4404,37 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>120.3087392029699</v>
+        <v>157.1026308627118</v>
       </c>
       <c r="L3" t="n">
-        <v>624.6702790690885</v>
+        <v>661.4641707288304</v>
       </c>
       <c r="M3" t="n">
-        <v>804.1676154236933</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N3" t="n">
-        <v>1456.341494726402</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O3" t="n">
-        <v>1980.364752439338</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.467288245464</v>
+        <v>2464.467288245465</v>
       </c>
       <c r="T3" t="n">
         <v>2267.477992405552</v>
@@ -4443,7 +4443,7 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.187096684975</v>
+        <v>1804.187096684976</v>
       </c>
       <c r="W3" t="n">
         <v>1549.949739956773</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.2274450368687</v>
+        <v>1803.718140525915</v>
       </c>
       <c r="C4" t="n">
-        <v>666.2274450368687</v>
+        <v>1803.718140525915</v>
       </c>
       <c r="D4" t="n">
-        <v>516.110805624533</v>
+        <v>1803.718140525915</v>
       </c>
       <c r="E4" t="n">
-        <v>368.1977120421399</v>
+        <v>1803.718140525915</v>
       </c>
       <c r="F4" t="n">
-        <v>221.3077645442295</v>
+        <v>1803.718140525915</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961285</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961285</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="K4" t="n">
-        <v>153.7488491352227</v>
+        <v>1736.159225116908</v>
       </c>
       <c r="L4" t="n">
-        <v>338.581844036041</v>
+        <v>1920.992220017726</v>
       </c>
       <c r="M4" t="n">
-        <v>543.851444755279</v>
+        <v>2126.261820736964</v>
       </c>
       <c r="N4" t="n">
-        <v>749.6748095913833</v>
+        <v>2332.085185573068</v>
       </c>
       <c r="O4" t="n">
-        <v>923.7697049799822</v>
+        <v>2506.180080961667</v>
       </c>
       <c r="P4" t="n">
-        <v>1049.217281578598</v>
+        <v>2631.627657560283</v>
       </c>
       <c r="Q4" t="n">
-        <v>1052.635600998958</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998958</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998958</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.635600998958</v>
+        <v>2409.416780293008</v>
       </c>
       <c r="U4" t="n">
-        <v>847.8759098671085</v>
+        <v>2120.264603870688</v>
       </c>
       <c r="V4" t="n">
-        <v>847.8759098671085</v>
+        <v>2024.510719669445</v>
       </c>
       <c r="W4" t="n">
-        <v>847.8759098671085</v>
+        <v>2024.510719669445</v>
       </c>
       <c r="X4" t="n">
-        <v>847.8759098671085</v>
+        <v>2024.510719669445</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.8759098671085</v>
+        <v>1803.718140525915</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.600202450399</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6376855099877</v>
+        <v>1582.251917426546</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6376855099877</v>
+        <v>1582.251917426546</v>
       </c>
       <c r="E5" t="n">
-        <v>864.6376855099877</v>
+        <v>1196.463664828302</v>
       </c>
       <c r="F5" t="n">
-        <v>453.6517807203801</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G5" t="n">
-        <v>440.6044029972117</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J5" t="n">
         <v>73.93516953299616</v>
@@ -4574,16 +4574,16 @@
         <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>896.0109951791954</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1413.39376509937</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.339374490333</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2010.339374490333</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W5" t="n">
-        <v>2010.339374490333</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X5" t="n">
-        <v>2010.339374490333</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.200042514521</v>
+        <v>1951.214434366958</v>
       </c>
     </row>
     <row r="6">
@@ -4635,40 +4635,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H6" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K6" t="n">
         <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>799.7031674253365</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1440.248516892441</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.341267297829</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778665</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S6" t="n">
         <v>2464.467288245464</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>581.5699661317573</v>
+        <v>343.0002755070423</v>
       </c>
       <c r="C7" t="n">
-        <v>581.5699661317573</v>
+        <v>343.0002755070423</v>
       </c>
       <c r="D7" t="n">
-        <v>581.5699661317573</v>
+        <v>343.0002755070423</v>
       </c>
       <c r="E7" t="n">
-        <v>433.6568725493642</v>
+        <v>195.0871819246492</v>
       </c>
       <c r="F7" t="n">
-        <v>286.7669250514538</v>
+        <v>195.0871819246492</v>
       </c>
       <c r="G7" t="n">
-        <v>286.7669250514538</v>
+        <v>195.0871819246492</v>
       </c>
       <c r="H7" t="n">
-        <v>132.5122819512189</v>
+        <v>195.0871819246492</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>633.00546329604</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>633.00546329604</v>
       </c>
       <c r="W7" t="n">
-        <v>763.218430961997</v>
+        <v>343.5882932590794</v>
       </c>
       <c r="X7" t="n">
-        <v>763.218430961997</v>
+        <v>343.0002755070423</v>
       </c>
       <c r="Y7" t="n">
-        <v>763.218430961997</v>
+        <v>343.0002755070423</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.771882194709</v>
+        <v>1359.201184453926</v>
       </c>
       <c r="C8" t="n">
-        <v>1116.809365254298</v>
+        <v>1359.201184453926</v>
       </c>
       <c r="D8" t="n">
-        <v>787.2680934312242</v>
+        <v>1359.201184453926</v>
       </c>
       <c r="E8" t="n">
-        <v>787.2680934312242</v>
+        <v>973.4129318556818</v>
       </c>
       <c r="F8" t="n">
-        <v>376.2821886416166</v>
+        <v>562.4270270660743</v>
       </c>
       <c r="G8" t="n">
-        <v>363.9188294972232</v>
+        <v>146.0232638812768</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>146.0232638812768</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>130.835092468485</v>
+        <v>130.8350924684842</v>
       </c>
       <c r="K8" t="n">
-        <v>298.6764817399675</v>
+        <v>619.5804401854186</v>
       </c>
       <c r="L8" t="n">
-        <v>950.8503610426765</v>
+        <v>864.7042869855022</v>
       </c>
       <c r="M8" t="n">
-        <v>1603.024240345385</v>
+        <v>1169.121234303565</v>
       </c>
       <c r="N8" t="n">
-        <v>2037.400854746162</v>
+        <v>1718.820133656399</v>
       </c>
       <c r="O8" t="n">
-        <v>2320.525851614948</v>
+        <v>2001.945130525183</v>
       </c>
       <c r="P8" t="n">
-        <v>2527.665485255196</v>
+        <v>2527.665485255197</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2494.418012841308</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.240406576941</v>
+        <v>2282.612442437607</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.603424808394</v>
+        <v>2282.612442437607</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.540537464824</v>
+        <v>2085.43559798512</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.771882194709</v>
+        <v>1732.666942715006</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.771882194709</v>
+        <v>1359.201184453926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.771882194709</v>
+        <v>1359.201184453926</v>
       </c>
     </row>
     <row r="9">
@@ -4857,58 +4857,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.6213010538162</v>
+        <v>949.6213010538164</v>
       </c>
       <c r="C9" t="n">
-        <v>775.1682717726892</v>
+        <v>775.1682717726894</v>
       </c>
       <c r="D9" t="n">
-        <v>626.2338621114379</v>
+        <v>626.2338621114382</v>
       </c>
       <c r="E9" t="n">
-        <v>466.9964071059825</v>
+        <v>466.9964071059827</v>
       </c>
       <c r="F9" t="n">
-        <v>320.4618491328674</v>
+        <v>320.4618491328677</v>
       </c>
       <c r="G9" t="n">
-        <v>183.3864336967613</v>
+        <v>183.3864336967616</v>
       </c>
       <c r="H9" t="n">
-        <v>86.00507344984513</v>
+        <v>86.00507344984533</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>80.41925070638527</v>
+        <v>205.2493756933895</v>
       </c>
       <c r="K9" t="n">
-        <v>467.7697029486087</v>
+        <v>592.5998279356122</v>
       </c>
       <c r="L9" t="n">
-        <v>786.0884989600111</v>
+        <v>807.7127674264974</v>
       </c>
       <c r="M9" t="n">
-        <v>1056.472021296272</v>
+        <v>1078.096289762757</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.64590059898</v>
+        <v>1730.270169065466</v>
       </c>
       <c r="O9" t="n">
-        <v>2343.425564033145</v>
+        <v>1975.126136415667</v>
       </c>
       <c r="P9" t="n">
-        <v>2520.610998471805</v>
+        <v>2467.589711807863</v>
       </c>
       <c r="Q9" t="n">
-        <v>2589.135572646087</v>
+        <v>2589.135572646088</v>
       </c>
       <c r="R9" t="n">
-        <v>2589.135572646087</v>
+        <v>2589.135572646088</v>
       </c>
       <c r="S9" t="n">
-        <v>2446.466742441993</v>
+        <v>2446.466742441994</v>
       </c>
       <c r="T9" t="n">
         <v>2250.952611716526</v>
@@ -4917,7 +4917,7 @@
         <v>2022.837902004315</v>
       </c>
       <c r="V9" t="n">
-        <v>1787.685793772572</v>
+        <v>1787.685793772573</v>
       </c>
       <c r="W9" t="n">
         <v>1533.448437044371</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.344229432545</v>
+        <v>587.3278517768996</v>
       </c>
       <c r="C10" t="n">
-        <v>354.344229432545</v>
+        <v>418.3916688489927</v>
       </c>
       <c r="D10" t="n">
-        <v>204.2275900202093</v>
+        <v>268.275029436657</v>
       </c>
       <c r="E10" t="n">
-        <v>204.2275900202093</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
-        <v>204.2275900202093</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>204.2275900202093</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>56.4430337719341</v>
+        <v>56.44303377193381</v>
       </c>
       <c r="K10" t="n">
-        <v>192.4293137012951</v>
+        <v>192.4293137012943</v>
       </c>
       <c r="L10" t="n">
-        <v>421.971368176305</v>
+        <v>421.9713681763036</v>
       </c>
       <c r="M10" t="n">
-        <v>674.3804035438114</v>
+        <v>674.3804035438094</v>
       </c>
       <c r="N10" t="n">
-        <v>926.2223326340655</v>
+        <v>926.2223326340629</v>
       </c>
       <c r="O10" t="n">
-        <v>1142.822820431832</v>
+        <v>1142.822820431829</v>
       </c>
       <c r="P10" t="n">
-        <v>1304.641274404488</v>
+        <v>1304.641274404484</v>
       </c>
       <c r="Q10" t="n">
-        <v>1333.240904069306</v>
+        <v>1333.240904069302</v>
       </c>
       <c r="R10" t="n">
-        <v>1333.240904069306</v>
+        <v>1333.240904069302</v>
       </c>
       <c r="S10" t="n">
-        <v>1131.14778037677</v>
+        <v>1131.147780376765</v>
       </c>
       <c r="T10" t="n">
-        <v>906.8295725758733</v>
+        <v>1131.147780376765</v>
       </c>
       <c r="U10" t="n">
-        <v>906.8295725758733</v>
+        <v>842.0123399827864</v>
       </c>
       <c r="V10" t="n">
-        <v>652.1450843699864</v>
+        <v>587.3278517768996</v>
       </c>
       <c r="W10" t="n">
-        <v>362.7279143330258</v>
+        <v>587.3278517768996</v>
       </c>
       <c r="X10" t="n">
-        <v>354.344229432545</v>
+        <v>587.3278517768996</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.344229432545</v>
+        <v>587.3278517768996</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.490329133572</v>
+        <v>1894.446607880606</v>
       </c>
       <c r="C11" t="n">
-        <v>1116.527812193161</v>
+        <v>1525.484090940194</v>
       </c>
       <c r="D11" t="n">
-        <v>1116.527812193161</v>
+        <v>1167.218392333444</v>
       </c>
       <c r="E11" t="n">
-        <v>730.739559594917</v>
+        <v>781.4301397351998</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>370.4442349455922</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I11" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706892</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087831</v>
@@ -5066,25 +5066,25 @@
         <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345378</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3672.904689377402</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048271</v>
+        <v>3672.904689377402</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.4639147047</v>
+        <v>3341.841802033831</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434586</v>
+        <v>3044.651538181619</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173506</v>
+        <v>2671.18577992054</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197694</v>
+        <v>2281.046447944728</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>354.4735703335452</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>773.1706109914969</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599343</v>
+        <v>1281.127176948025</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861144</v>
+        <v>1735.206074881278</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2203.147119213801</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.0414649114391</v>
+        <v>184.1123407281369</v>
       </c>
       <c r="C13" t="n">
-        <v>610.1052819835321</v>
+        <v>184.1123407281368</v>
       </c>
       <c r="D13" t="n">
-        <v>459.9886425711964</v>
+        <v>184.1123407281368</v>
       </c>
       <c r="E13" t="n">
-        <v>459.9886425711964</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
         <v>77.53766591592074</v>
@@ -5200,13 +5200,13 @@
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
         <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925584</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360024</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1546.760441309475</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.075953103588</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.075953103588</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>1181.482508885209</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.6899297416788</v>
+        <v>365.7608055583765</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5297,10 +5297,10 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.8461362382112</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9099533103043</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="D16" t="n">
-        <v>322.7933138979686</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5467,19 +5467,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.378389352843</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1561.693901146956</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1272.276731109998</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1044.287180211981</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y16" t="n">
-        <v>823.4946010684509</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5507,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>983.3556038098236</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.805592491203</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.121104285317</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1030.918378293886</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>861.9821953659791</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>711.8655559536434</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>563.9524623712502</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>417.0625148733399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>249.8664155882199</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510507</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.77659230462</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.35942226766</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1433.35942226766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1212.566843124126</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290468</v>
+        <v>915.1035305473702</v>
       </c>
       <c r="C25" t="n">
-        <v>699.7311804011399</v>
+        <v>746.1673476194633</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>637.9025067654824</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830893</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851789</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,13 +6160,13 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X25" t="n">
-        <v>1050.315828159287</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159286</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U28" t="n">
-        <v>1963.123159128058</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V28" t="n">
-        <v>1708.438670922171</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.10905366816</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>922.1728707402533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>772.0562313279175</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>624.1431377455244</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>477.253190247614</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0570909624941</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,25 +6625,25 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6658,13 +6658,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.7575184984</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1272.7575184984</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,16 +6771,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6789,16 +6789,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1754.779756989948</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1465.362586952987</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1237.37303605497</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.58045691144</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2251.626625948254</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1190.460190151587</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>969.6676110080573</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>139.2347658407936</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647286</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504993</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381635</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336516</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949683</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>208.9886740942263</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>666.6476097656496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>516.5309703533138</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>368.6178767709207</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2313.46766635706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U46" t="n">
-        <v>1795.927059842937</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1541.24257163705</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W46" t="n">
-        <v>1251.82540160009</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>30.21968338400237</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>37.16554713105243</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>458.0981188384286</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O3" t="n">
-        <v>368.1928737819952</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,19 +8222,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>326.3116737658505</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>283.176005620424</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569022</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>411.1616489925495</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>351.2696282673176</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>121.6364386243972</v>
+        <v>238.1235951416278</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.1786126444932</v>
+        <v>23.1786126444938</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>104.2483399197131</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>363.8641058239809</v>
+        <v>363.8641058239824</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>53.5568552161035</v>
       </c>
       <c r="R9" t="n">
-        <v>43.92668002524849</v>
+        <v>43.9266800252488</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>194.822399954617</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>55.02260750372363</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>40.92503458247532</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>116.2221456128416</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>60.33736343303293</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>65.75554125013227</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.07129414994392</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272874</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>180.5336875992879</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>41.43328057277131</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>132.6809716109906</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>20.61870490125375</v>
       </c>
       <c r="U28" t="n">
-        <v>54.58448189332918</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>78.25894333073116</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482525529412385</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>251.4923607175956</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>205.0486432732462</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194248</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>129.6605885985409</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>38.89198472948077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>106.4657939283484</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
         <v>274720.9666028986</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="G2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="H2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="I2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="J2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="G2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="H2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="M2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="O2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="P2" t="n">
         <v>302679.9748837524</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="P2" t="n">
-        <v>302679.9748837523</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.4137109849</v>
+        <v>792647.413710985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144261.3327426441</v>
+        <v>144261.3327426421</v>
       </c>
       <c r="E3" t="n">
-        <v>446448.3338318964</v>
+        <v>446448.3338318985</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704285</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>77367.70679951788</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202366</v>
+        <v>49839.57413202358</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160336.920087536</v>
+        <v>160336.9200875365</v>
       </c>
       <c r="E4" t="n">
         <v>6792.005937060821</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707356</v>
+        <v>6897.424496707371</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.42449670737</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707371</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707422</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707368</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707378</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707278</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707331</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.424496707376</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707373</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707381</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747558</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747558</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>90290.24696804752</v>
+        <v>90290.24696804749</v>
       </c>
       <c r="E5" t="n">
         <v>85137.48506738569</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-761266.640270973</v>
+        <v>-761266.6402709731</v>
       </c>
       <c r="C6" t="n">
-        <v>31380.77344001195</v>
+        <v>31380.77344001188</v>
       </c>
       <c r="D6" t="n">
-        <v>-86997.83609912137</v>
+        <v>-86997.83609911986</v>
       </c>
       <c r="E6" t="n">
-        <v>-263656.8582334443</v>
+        <v>-263877.9895474211</v>
       </c>
       <c r="F6" t="n">
-        <v>5351.751792708907</v>
+        <v>5317.013867273461</v>
       </c>
       <c r="G6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.282637702</v>
       </c>
       <c r="H6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.282637702</v>
       </c>
       <c r="I6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.2826377019</v>
       </c>
       <c r="J6" t="n">
-        <v>22299.02816285705</v>
+        <v>22264.29023742127</v>
       </c>
       <c r="K6" t="n">
-        <v>194660.0205631374</v>
+        <v>194625.2826377021</v>
       </c>
       <c r="L6" t="n">
-        <v>194660.0205631379</v>
+        <v>194625.2826377021</v>
       </c>
       <c r="M6" t="n">
-        <v>117292.31376362</v>
+        <v>117257.5758381842</v>
       </c>
       <c r="N6" t="n">
-        <v>144820.4464311142</v>
+        <v>144785.7085056785</v>
       </c>
       <c r="O6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.282637702</v>
       </c>
       <c r="P6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.2826377021</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>761.9242255936589</v>
+        <v>761.9242255936565</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490092</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.4481252555938</v>
+        <v>168.4481252555914</v>
       </c>
       <c r="E3" t="n">
-        <v>440.3170116212917</v>
+        <v>440.3170116212943</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>310.4593297038485</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038483</v>
+        <v>310.4593297038485</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>310.4593297038485</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7870804187297</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>275.5842351386427</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.54856043756629</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.3412979645975</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.0047568209518</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>49.51247634608308</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>44.25330909192705</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -27828,7 +27828,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>225.1275178145204</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>28.43718251584016</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>308.1057308580343</v>
       </c>
       <c r="I8" t="n">
-        <v>92.38912089824696</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.2216844979418</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1006119508617</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>132.5471824621734</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>78.43664187142679</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.6170176401751</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>150.0114037757905</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1316988901464</v>
+        <v>114.1316988901465</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5150762987066</v>
+        <v>115.5150762987068</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>222.0750257228877</v>
       </c>
       <c r="U10" t="n">
-        <v>286.244085990039</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>217.4098073375612</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-4.001776687800885e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.063011962185561</v>
+        <v>3.063011962185552</v>
       </c>
       <c r="H8" t="n">
-        <v>31.36907125773288</v>
+        <v>31.36907125773279</v>
       </c>
       <c r="I8" t="n">
-        <v>118.086768672159</v>
+        <v>118.0867686721586</v>
       </c>
       <c r="J8" t="n">
-        <v>259.969311525547</v>
+        <v>259.9693115255462</v>
       </c>
       <c r="K8" t="n">
-        <v>389.6266078848619</v>
+        <v>389.6266078848607</v>
       </c>
       <c r="L8" t="n">
-        <v>483.3662602225983</v>
+        <v>483.3662602225968</v>
       </c>
       <c r="M8" t="n">
-        <v>537.8380992051158</v>
+        <v>537.8380992051141</v>
       </c>
       <c r="N8" t="n">
-        <v>546.5408819426756</v>
+        <v>546.5408819426739</v>
       </c>
       <c r="O8" t="n">
-        <v>516.0830567436929</v>
+        <v>516.0830567436913</v>
       </c>
       <c r="P8" t="n">
-        <v>440.4649489272367</v>
+        <v>440.4649489272354</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.7708330314662</v>
+        <v>330.7708330314652</v>
       </c>
       <c r="R8" t="n">
-        <v>192.4069251696389</v>
+        <v>192.4069251696383</v>
       </c>
       <c r="S8" t="n">
-        <v>69.79838508830355</v>
+        <v>69.79838508830332</v>
       </c>
       <c r="T8" t="n">
-        <v>13.4083348644673</v>
+        <v>13.40833486446726</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2450409569748448</v>
+        <v>0.2450409569748441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638855881465606</v>
+        <v>1.638855881465601</v>
       </c>
       <c r="H9" t="n">
-        <v>15.82789759204941</v>
+        <v>15.82789759204936</v>
       </c>
       <c r="I9" t="n">
-        <v>56.42552048028512</v>
+        <v>56.42552048028494</v>
       </c>
       <c r="J9" t="n">
-        <v>154.8359409765378</v>
+        <v>154.8359409765373</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6392850347334</v>
+        <v>264.6392850347326</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8401772454159</v>
+        <v>355.8401772454148</v>
       </c>
       <c r="M9" t="n">
-        <v>415.2487029485441</v>
+        <v>415.2487029485428</v>
       </c>
       <c r="N9" t="n">
-        <v>426.239100504513</v>
+        <v>426.2391005045117</v>
       </c>
       <c r="O9" t="n">
-        <v>389.9255043941435</v>
+        <v>389.9255043941423</v>
       </c>
       <c r="P9" t="n">
-        <v>312.9495937160069</v>
+        <v>312.9495937160058</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1985156762061</v>
+        <v>209.1985156762055</v>
       </c>
       <c r="R9" t="n">
-        <v>101.7528239387155</v>
+        <v>101.7528239387152</v>
       </c>
       <c r="S9" t="n">
-        <v>30.44102920178437</v>
+        <v>30.44102920178427</v>
       </c>
       <c r="T9" t="n">
-        <v>6.605739276609173</v>
+        <v>6.605739276609151</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1078194658858952</v>
+        <v>0.1078194658858948</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373961718283647</v>
+        <v>1.373961718283643</v>
       </c>
       <c r="H10" t="n">
-        <v>12.21576873164916</v>
+        <v>12.21576873164912</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31877603711187</v>
+        <v>41.31877603711174</v>
       </c>
       <c r="J10" t="n">
-        <v>97.13909348265383</v>
+        <v>97.13909348265354</v>
       </c>
       <c r="K10" t="n">
-        <v>159.6293705424091</v>
+        <v>159.6293705424087</v>
       </c>
       <c r="L10" t="n">
-        <v>204.2706358255524</v>
+        <v>204.2706358255518</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3747446214993</v>
+        <v>215.3747446214986</v>
       </c>
       <c r="N10" t="n">
-        <v>210.2536145806241</v>
+        <v>210.2536145806234</v>
       </c>
       <c r="O10" t="n">
-        <v>194.2032435988559</v>
+        <v>194.2032435988553</v>
       </c>
       <c r="P10" t="n">
-        <v>166.1744245458694</v>
+        <v>166.1744245458689</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.0505580646425</v>
+        <v>115.0505580646421</v>
       </c>
       <c r="R10" t="n">
-        <v>61.77831507846287</v>
+        <v>61.77831507846268</v>
       </c>
       <c r="S10" t="n">
-        <v>23.94440558136137</v>
+        <v>23.94440558136129</v>
       </c>
       <c r="T10" t="n">
-        <v>5.870563705393763</v>
+        <v>5.870563705393745</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07494336645183537</v>
+        <v>0.07494336645183515</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495315</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.480683474775</v>
       </c>
       <c r="M12" t="n">
-        <v>250.1980451314294</v>
+        <v>655.2214742821482</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>590.0072655512648</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31926,10 +31926,10 @@
         <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806239</v>
@@ -31938,16 +31938,16 @@
         <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
         <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>491.1355220041054</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>567.7870775946146</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>399.0581126127089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>181.9330708814848</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>142.0725371714029</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>105.4562740637363</v>
       </c>
       <c r="L3" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O3" t="n">
-        <v>529.3164219322584</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>522.6088585052266</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>421.7917611918321</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
@@ -35030,7 +35030,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097293</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.92340699886074</v>
+        <v>78.92340699885989</v>
       </c>
       <c r="K8" t="n">
-        <v>169.5367568398813</v>
+        <v>493.6821694110449</v>
       </c>
       <c r="L8" t="n">
-        <v>658.7614942451606</v>
+        <v>247.5998452526096</v>
       </c>
       <c r="M8" t="n">
-        <v>658.7614942451606</v>
+        <v>307.4918659778414</v>
       </c>
       <c r="N8" t="n">
-        <v>438.7642569704819</v>
+        <v>555.2514134877108</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9848453220061</v>
+        <v>285.9848453220045</v>
       </c>
       <c r="P8" t="n">
-        <v>209.2319531719672</v>
+        <v>531.0306613434484</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.4651431570167</v>
+        <v>108.4651431570157</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.99831430987112</v>
+        <v>154.0893496502795</v>
       </c>
       <c r="K9" t="n">
-        <v>391.263083072953</v>
+        <v>391.2630830729522</v>
       </c>
       <c r="L9" t="n">
-        <v>321.5341373852549</v>
+        <v>217.2857974655406</v>
       </c>
       <c r="M9" t="n">
-        <v>273.1146690265257</v>
+        <v>273.1146690265244</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O9" t="n">
-        <v>641.1915792264285</v>
+        <v>247.3292599496979</v>
       </c>
       <c r="P9" t="n">
-        <v>178.9751863016766</v>
+        <v>497.4379549416128</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.21674159018463</v>
+        <v>122.7735968062875</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.779913365981059</v>
+        <v>3.779913365980761</v>
       </c>
       <c r="K10" t="n">
-        <v>137.3598787165263</v>
+        <v>137.3598787165258</v>
       </c>
       <c r="L10" t="n">
-        <v>231.8606610858686</v>
+        <v>231.8606610858679</v>
       </c>
       <c r="M10" t="n">
-        <v>254.9586215833399</v>
+        <v>254.9586215833392</v>
       </c>
       <c r="N10" t="n">
-        <v>254.3857869598527</v>
+        <v>254.385786959852</v>
       </c>
       <c r="O10" t="n">
-        <v>218.7883715128956</v>
+        <v>218.788371512895</v>
       </c>
       <c r="P10" t="n">
-        <v>163.4529838107629</v>
+        <v>163.4529838107624</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.8885148129481</v>
+        <v>28.88851481294775</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949008</v>
       </c>
       <c r="M12" t="n">
-        <v>108.0640112094111</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>458.6655534679315</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655348</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
         <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946636</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>349.0014880820871</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>425.1908331501702</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>265.0837051983787</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>44.09163190712582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
